--- a/data/pca/factorExposure/factorExposure_2013-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002109208080728818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001765942659426881</v>
+      </c>
+      <c r="C2">
+        <v>0.03138711761659483</v>
+      </c>
+      <c r="D2">
+        <v>0.003445254879496831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002097981683294915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006361166757254973</v>
+      </c>
+      <c r="C4">
+        <v>0.0834695006351537</v>
+      </c>
+      <c r="D4">
+        <v>0.08066028564180708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003850278202447471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01367415393386444</v>
+      </c>
+      <c r="C6">
+        <v>0.1066794397222176</v>
+      </c>
+      <c r="D6">
+        <v>0.03663136967558364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00119321053348829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005147129223955801</v>
+      </c>
+      <c r="C7">
+        <v>0.05275028776230518</v>
+      </c>
+      <c r="D7">
+        <v>0.03793029927425792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002642870028819638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005901717893613539</v>
+      </c>
+      <c r="C8">
+        <v>0.03770895544681668</v>
+      </c>
+      <c r="D8">
+        <v>0.04112319531858379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005901935003282408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004241960698160768</v>
+      </c>
+      <c r="C9">
+        <v>0.06773780316899522</v>
+      </c>
+      <c r="D9">
+        <v>0.07061710706170371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005425645495366607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005981512464672104</v>
+      </c>
+      <c r="C10">
+        <v>0.08372670959621208</v>
+      </c>
+      <c r="D10">
+        <v>-0.2147348804702191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005663869787494046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005170907708231789</v>
+      </c>
+      <c r="C11">
+        <v>0.07928856468226909</v>
+      </c>
+      <c r="D11">
+        <v>0.06528173377252955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0008052474205063737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004091346505824335</v>
+      </c>
+      <c r="C12">
+        <v>0.06327295291131028</v>
+      </c>
+      <c r="D12">
+        <v>0.04706697572615244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003241902264298768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008926665583327782</v>
+      </c>
+      <c r="C13">
+        <v>0.06974863353240264</v>
+      </c>
+      <c r="D13">
+        <v>0.07096938051680002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004283414480182061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.002160581079903774</v>
+      </c>
+      <c r="C14">
+        <v>0.0467295788776562</v>
+      </c>
+      <c r="D14">
+        <v>0.01633136848825802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003605912724154189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00585430072693669</v>
+      </c>
+      <c r="C15">
+        <v>0.03703105266640234</v>
+      </c>
+      <c r="D15">
+        <v>0.04317398381384447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003401909044873355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005214920679274288</v>
+      </c>
+      <c r="C16">
+        <v>0.06446431738863304</v>
+      </c>
+      <c r="D16">
+        <v>0.04953121089777664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001306493507106096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009443713304325939</v>
+      </c>
+      <c r="C20">
+        <v>0.06505666629795205</v>
+      </c>
+      <c r="D20">
+        <v>0.05844059431976631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.003065427953194558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01004420563410812</v>
+      </c>
+      <c r="C21">
+        <v>0.02566328455625642</v>
+      </c>
+      <c r="D21">
+        <v>0.03678628491576898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01693522508757109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007155676293916726</v>
+      </c>
+      <c r="C22">
+        <v>0.08692697499272399</v>
+      </c>
+      <c r="D22">
+        <v>0.1031779496046155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01718621809116326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006907380565161217</v>
+      </c>
+      <c r="C23">
+        <v>0.08952387200857008</v>
+      </c>
+      <c r="D23">
+        <v>0.1001096844097475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004373913202181836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004832888195811949</v>
+      </c>
+      <c r="C24">
+        <v>0.07214668394713857</v>
+      </c>
+      <c r="D24">
+        <v>0.06019751219588158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005488413519795837</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003096602341339755</v>
+      </c>
+      <c r="C25">
+        <v>0.07710394673442345</v>
+      </c>
+      <c r="D25">
+        <v>0.06420961997050774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.007139081001527429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003736343374803946</v>
+      </c>
+      <c r="C26">
+        <v>0.04256722899837923</v>
+      </c>
+      <c r="D26">
+        <v>0.02534853185632749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004588205655164504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0002271037618760459</v>
+      </c>
+      <c r="C28">
+        <v>0.1333278025567459</v>
+      </c>
+      <c r="D28">
+        <v>-0.304856341876816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001704989367522384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00355764120684399</v>
+      </c>
+      <c r="C29">
+        <v>0.04957364527374575</v>
+      </c>
+      <c r="D29">
+        <v>0.02050686585170765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006797894719612224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009754197405436139</v>
+      </c>
+      <c r="C30">
+        <v>0.1344242260683658</v>
+      </c>
+      <c r="D30">
+        <v>0.1114237718219129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002712408736894865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006239154022321232</v>
+      </c>
+      <c r="C31">
+        <v>0.04665845361891409</v>
+      </c>
+      <c r="D31">
+        <v>0.03687343399445588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000106474260000956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004179996300757485</v>
+      </c>
+      <c r="C32">
+        <v>0.04058645506946892</v>
+      </c>
+      <c r="D32">
+        <v>0.01687192535391911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003913822740233331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008101942544817244</v>
+      </c>
+      <c r="C33">
+        <v>0.08196552929133398</v>
+      </c>
+      <c r="D33">
+        <v>0.07630021908847608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005660350188101972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003831438335633526</v>
+      </c>
+      <c r="C34">
+        <v>0.05622853425303664</v>
+      </c>
+      <c r="D34">
+        <v>0.04410061992748639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004156806877652673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005050640214426835</v>
+      </c>
+      <c r="C35">
+        <v>0.03951418411368569</v>
+      </c>
+      <c r="D35">
+        <v>0.01524113936409857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005145024329848197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00132437455293148</v>
+      </c>
+      <c r="C36">
+        <v>0.02550012620246494</v>
+      </c>
+      <c r="D36">
+        <v>0.02316122009422311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002153136193089045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009276704252960023</v>
+      </c>
+      <c r="C38">
+        <v>0.03506685591527729</v>
+      </c>
+      <c r="D38">
+        <v>0.0291188600266838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01518006444913968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0007228069859403969</v>
+      </c>
+      <c r="C39">
+        <v>0.1122020161588715</v>
+      </c>
+      <c r="D39">
+        <v>0.08654321111650919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008385136688509183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002622682312367654</v>
+      </c>
+      <c r="C40">
+        <v>0.08529499311855032</v>
+      </c>
+      <c r="D40">
+        <v>0.02970826339665538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002070762823078624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00751366390486413</v>
+      </c>
+      <c r="C41">
+        <v>0.0409789246516005</v>
+      </c>
+      <c r="D41">
+        <v>0.0357779945893522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001892133337723233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003186303858866501</v>
+      </c>
+      <c r="C43">
+        <v>0.0516841058161996</v>
+      </c>
+      <c r="D43">
+        <v>0.02909400772264527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004841833251304876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.004013960770513408</v>
+      </c>
+      <c r="C44">
+        <v>0.1047709332408833</v>
+      </c>
+      <c r="D44">
+        <v>0.08709736657763875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002584521525587001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002647091590007298</v>
+      </c>
+      <c r="C46">
+        <v>0.03417214949205194</v>
+      </c>
+      <c r="D46">
+        <v>0.03419598821035483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002439176616696914</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002934099011565712</v>
+      </c>
+      <c r="C47">
+        <v>0.03891503072825862</v>
+      </c>
+      <c r="D47">
+        <v>0.02888828313862898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003724516669230021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006546937520631924</v>
+      </c>
+      <c r="C48">
+        <v>0.03127091413815603</v>
+      </c>
+      <c r="D48">
+        <v>0.03032988899187356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01515670037602273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01444791895946706</v>
+      </c>
+      <c r="C49">
+        <v>0.167297921906815</v>
+      </c>
+      <c r="D49">
+        <v>0.03899252778335059</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0001947510175998627</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004149068181085225</v>
+      </c>
+      <c r="C50">
+        <v>0.0422580747618821</v>
+      </c>
+      <c r="D50">
+        <v>0.03849252539796018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002598070076371191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004113362976077362</v>
+      </c>
+      <c r="C51">
+        <v>0.02028504258183405</v>
+      </c>
+      <c r="D51">
+        <v>0.03417370242870231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006456942929356577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0205080879144245</v>
+      </c>
+      <c r="C53">
+        <v>0.1643287995871612</v>
+      </c>
+      <c r="D53">
+        <v>0.05722543510805209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0009723211691981751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008619542554347329</v>
+      </c>
+      <c r="C54">
+        <v>0.05502110601856914</v>
+      </c>
+      <c r="D54">
+        <v>0.04085138371479265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005544438577906778</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009971745485636343</v>
+      </c>
+      <c r="C55">
+        <v>0.1048104772769497</v>
+      </c>
+      <c r="D55">
+        <v>0.05506012518379643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002349141063536214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01970017332483893</v>
+      </c>
+      <c r="C56">
+        <v>0.1696929496295409</v>
+      </c>
+      <c r="D56">
+        <v>0.056831438226142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008415023290043445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01974794226691179</v>
+      </c>
+      <c r="C58">
+        <v>0.1004778478833784</v>
+      </c>
+      <c r="D58">
+        <v>0.0803685706613642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007551159257426334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008917633457559406</v>
+      </c>
+      <c r="C59">
+        <v>0.1732182501315787</v>
+      </c>
+      <c r="D59">
+        <v>-0.2706184967485597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00779678965792747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02324521994556574</v>
+      </c>
+      <c r="C60">
+        <v>0.2192407337879732</v>
+      </c>
+      <c r="D60">
+        <v>0.0330288567949979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01736684952893293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001832057692419183</v>
+      </c>
+      <c r="C61">
+        <v>0.09428318545326286</v>
+      </c>
+      <c r="D61">
+        <v>0.06396675401594533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1878048420753521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1449508521213943</v>
+      </c>
+      <c r="C62">
+        <v>0.06936705256304027</v>
+      </c>
+      <c r="D62">
+        <v>0.05168287111079543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.003015789668410635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00688855667997201</v>
+      </c>
+      <c r="C63">
+        <v>0.05865681166603648</v>
+      </c>
+      <c r="D63">
+        <v>0.02706786362729862</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006122494035973667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01566495935652062</v>
+      </c>
+      <c r="C64">
+        <v>0.09734042931948118</v>
+      </c>
+      <c r="D64">
+        <v>0.06706087494104439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0001038452377061923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01719008374343383</v>
+      </c>
+      <c r="C65">
+        <v>0.1115233559568924</v>
+      </c>
+      <c r="D65">
+        <v>0.03372817295463598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01155995864734657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01274426237416951</v>
+      </c>
+      <c r="C66">
+        <v>0.1487814107881528</v>
+      </c>
+      <c r="D66">
+        <v>0.1252155966079989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00208177903484847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01539222448501137</v>
+      </c>
+      <c r="C67">
+        <v>0.06427771417799583</v>
+      </c>
+      <c r="D67">
+        <v>0.04083769138924562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007938803417306343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001569795690147703</v>
+      </c>
+      <c r="C68">
+        <v>0.1174260651865649</v>
+      </c>
+      <c r="D68">
+        <v>-0.2628981774661818</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003134154688757493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005371932955933546</v>
+      </c>
+      <c r="C69">
+        <v>0.04624351777009085</v>
+      </c>
+      <c r="D69">
+        <v>0.0461818467956001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001580243989248724</v>
+      </c>
+      <c r="C70">
+        <v>0.001726870687973553</v>
+      </c>
+      <c r="D70">
+        <v>0.002227735262246421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003475245714145477</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006390768241442427</v>
+      </c>
+      <c r="C71">
+        <v>0.1199703797006125</v>
+      </c>
+      <c r="D71">
+        <v>-0.2803067901065864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008570492692329913</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01546157298761183</v>
+      </c>
+      <c r="C72">
+        <v>0.1480026797202307</v>
+      </c>
+      <c r="D72">
+        <v>0.03239024934051916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01344969276513408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03176832049633378</v>
+      </c>
+      <c r="C73">
+        <v>0.2824777657264768</v>
+      </c>
+      <c r="D73">
+        <v>0.05339224370883161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005611726871832843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002079084745873157</v>
+      </c>
+      <c r="C74">
+        <v>0.1030119543766988</v>
+      </c>
+      <c r="D74">
+        <v>0.04545267004418197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00683081982360505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01079097872493308</v>
+      </c>
+      <c r="C75">
+        <v>0.1314261694364151</v>
+      </c>
+      <c r="D75">
+        <v>0.04516997859239005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01114920271877101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02154340570267708</v>
+      </c>
+      <c r="C76">
+        <v>0.1425414935696766</v>
+      </c>
+      <c r="D76">
+        <v>0.07642668160599729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002997425431411005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02324213546027578</v>
+      </c>
+      <c r="C77">
+        <v>0.1283081326885945</v>
+      </c>
+      <c r="D77">
+        <v>0.07018804108182217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008299607625937972</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01481622345604009</v>
+      </c>
+      <c r="C78">
+        <v>0.08985293317067203</v>
+      </c>
+      <c r="D78">
+        <v>0.06874673156537028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0264344900795684</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03703355095955466</v>
+      </c>
+      <c r="C79">
+        <v>0.1545249302715784</v>
+      </c>
+      <c r="D79">
+        <v>0.04047629346526403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004430363348064413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01083051286114147</v>
+      </c>
+      <c r="C80">
+        <v>0.04168686329276468</v>
+      </c>
+      <c r="D80">
+        <v>0.03556193377693928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009680248032011174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01488372837428344</v>
+      </c>
+      <c r="C81">
+        <v>0.1194615121704168</v>
+      </c>
+      <c r="D81">
+        <v>0.06469603468423317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007069689000542477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01924166776600795</v>
+      </c>
+      <c r="C82">
+        <v>0.1401561749935628</v>
+      </c>
+      <c r="D82">
+        <v>0.05167480753206448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008433268261094376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009677671888517137</v>
+      </c>
+      <c r="C83">
+        <v>0.05157862499281438</v>
+      </c>
+      <c r="D83">
+        <v>0.05800531192612171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01387250335258334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01237176540872278</v>
+      </c>
+      <c r="C84">
+        <v>0.03018058667236656</v>
+      </c>
+      <c r="D84">
+        <v>-0.000174351119536162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01637297321546557</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02858977155588262</v>
+      </c>
+      <c r="C85">
+        <v>0.1283500501234846</v>
+      </c>
+      <c r="D85">
+        <v>0.05677304901330436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003457727004818571</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004909578246040536</v>
+      </c>
+      <c r="C86">
+        <v>0.04773288423896605</v>
+      </c>
+      <c r="D86">
+        <v>0.02193612720529544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008118379181023008</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01068743204422227</v>
+      </c>
+      <c r="C87">
+        <v>0.124345612903025</v>
+      </c>
+      <c r="D87">
+        <v>0.08144694933059546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01439725684493867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00293491738672063</v>
+      </c>
+      <c r="C88">
+        <v>0.07118092249350597</v>
+      </c>
+      <c r="D88">
+        <v>0.01939204278072425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01456591426380502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001842010350737433</v>
+      </c>
+      <c r="C89">
+        <v>0.1694613965134384</v>
+      </c>
+      <c r="D89">
+        <v>-0.3372552488207716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001750278672710956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007756985218198444</v>
+      </c>
+      <c r="C90">
+        <v>0.1520396823198597</v>
+      </c>
+      <c r="D90">
+        <v>-0.3135865663280146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0003313985778026253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01019082540759012</v>
+      </c>
+      <c r="C91">
+        <v>0.1020492680547688</v>
+      </c>
+      <c r="D91">
+        <v>0.02531613168368748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01609792771999505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009858024210433135</v>
+      </c>
+      <c r="C92">
+        <v>0.1600445148819954</v>
+      </c>
+      <c r="D92">
+        <v>-0.3238338258778907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0013394666700745</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004992397021014796</v>
+      </c>
+      <c r="C93">
+        <v>0.1331346902194515</v>
+      </c>
+      <c r="D93">
+        <v>-0.3103153604072463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001178061749422969</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02224110705994661</v>
+      </c>
+      <c r="C94">
+        <v>0.1554673049905257</v>
+      </c>
+      <c r="D94">
+        <v>0.03837895457176813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.006718827199796363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01671901980785417</v>
+      </c>
+      <c r="C95">
+        <v>0.1207086077586497</v>
+      </c>
+      <c r="D95">
+        <v>0.07002177706449986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004347344917689734</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03331742478062217</v>
+      </c>
+      <c r="C97">
+        <v>0.1692105072957268</v>
+      </c>
+      <c r="D97">
+        <v>0.04655108049762149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007573236514282164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03619542727521084</v>
+      </c>
+      <c r="C98">
+        <v>0.2572288224523353</v>
+      </c>
+      <c r="D98">
+        <v>0.04738472648738353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9796220949342415</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9823573467933582</v>
+      </c>
+      <c r="C99">
+        <v>-0.1097773897874445</v>
+      </c>
+      <c r="D99">
+        <v>-0.03590085509841093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001658974986270601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00360303203560542</v>
+      </c>
+      <c r="C101">
+        <v>0.04966282939870054</v>
+      </c>
+      <c r="D101">
+        <v>0.02054170667410836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
